--- a/for Hector/Tom/Good Data/SF001RIGHT-Done.xlsx
+++ b/for Hector/Tom/Good Data/SF001RIGHT-Done.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shq153\Desktop\Caltrans\for Hector\Tom\Good Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
   </bookViews>
@@ -12,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -278,24 +283,35 @@
         <c:spPr>
           <a:noFill/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
           <a:noFill/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
           <a:noFill/>
         </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="4"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -313,6 +329,9 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -330,6 +349,9 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
                   <a:t>Grind PCC for Smoothness - 04-107CBT - Beg PM:    6.330 - End PM: 7.077 - CAPM, Length: 0.747</a:t>
@@ -337,19 +359,27 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:spPr/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="6"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -367,6 +397,9 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -384,6 +417,9 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
                   <a:t>HMA Medium Overlay - 04-4C130 - Beg PM:    0.000 - End PM: 6.330 - CAPM, Length: 6.33</a:t>
@@ -391,19 +427,27 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:spPr/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="8"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -421,6 +465,9 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -438,6 +485,9 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
                   <a:t>Slab Replacement - 04-2441U - Beg PM: 0.680 - End PM: 1.350 - Rehab, Length: 0.67</a:t>
@@ -445,19 +495,27 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:spPr/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="10"/>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr/>
           <c:txPr>
             <a:bodyPr/>
@@ -475,6 +533,9 @@
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
@@ -492,6 +553,9 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
                   <a:t>HMA Medium Overlay - 04-23290 - Beg PM:    2.100 - End PM: 4.100 - Rehab, Length: 2</a:t>
@@ -499,12 +563,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:spPr/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="1"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
@@ -616,6 +686,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -635,6 +710,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -711,6 +791,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -730,6 +815,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -857,6 +947,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -876,6 +971,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1003,6 +1103,11 @@
               <c:showSerName val="1"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr/>
             <c:txPr>
@@ -1022,6 +1127,11 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -1066,20 +1176,21 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="83565568"/>
-        <c:axId val="58136768"/>
+        <c:axId val="176894320"/>
+        <c:axId val="176894704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83565568"/>
+        <c:axId val="176894320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58136768"/>
+        <c:crossAx val="176894704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1087,7 +1198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58136768"/>
+        <c:axId val="176894704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,16 +1209,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83565568"/>
+        <c:crossAx val="176894320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1123,7 +1229,6 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -1348,7 +1453,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:AO12" firstHeaderRow="1" firstDataRow="7" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -2187,7 +2292,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
